--- a/REGULAR/OJT/NEW DONE/SEDUCON, ESTELITO.xlsx
+++ b/REGULAR/OJT/NEW DONE/SEDUCON, ESTELITO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601B9D75-B604-4F60-B99C-CCBD9905B71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABE4E18-6995-404D-AD34-3043B219E40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="599" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="195">
   <si>
     <t>PERIOD</t>
   </si>
@@ -3403,7 +3403,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A404" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B412" sqref="B412"/>
+      <selection pane="bottomLeft" activeCell="K418" sqref="K418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3566,7 +3566,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>140.08900000000006</v>
+        <v>141.33900000000006</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3576,7 +3576,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>426.25</v>
+        <v>426.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12540,19 +12540,27 @@
       <c r="A417" s="40">
         <v>44986</v>
       </c>
-      <c r="B417" s="20"/>
-      <c r="C417" s="13"/>
+      <c r="B417" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C417" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D417" s="39"/>
       <c r="E417" s="9"/>
       <c r="F417" s="20"/>
-      <c r="G417" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H417" s="39"/>
+      <c r="G417" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H417" s="39">
+        <v>1</v>
+      </c>
       <c r="I417" s="9"/>
       <c r="J417" s="11"/>
-      <c r="K417" s="20"/>
+      <c r="K417" s="49">
+        <v>44999</v>
+      </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">

--- a/REGULAR/OJT/NEW DONE/SEDUCON, ESTELITO.xlsx
+++ b/REGULAR/OJT/NEW DONE/SEDUCON, ESTELITO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABE4E18-6995-404D-AD34-3043B219E40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="599" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="599" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="196">
   <si>
     <t>PERIOD</t>
   </si>
@@ -620,12 +619,15 @@
   </si>
   <si>
     <t>10/20,21/2022</t>
+  </si>
+  <si>
+    <t>6/1-15/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1485,7 +1487,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1528,7 +1530,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1592,7 +1594,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1652,7 +1654,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1718,7 +1720,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1781,7 +1783,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1879,7 +1881,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1938,7 +1940,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2003,7 +2005,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2046,7 +2048,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2121,7 +2123,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,7 +2309,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2373,7 +2375,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2431,7 +2433,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2497,7 +2499,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2553,7 +2555,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2628,7 +2630,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2671,7 +2673,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2737,7 +2739,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2793,7 +2795,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2891,7 +2893,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2954,7 +2956,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3020,25 +3022,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K451" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K451" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3050,13 +3052,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3065,14 +3067,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3376,7 +3378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3386,7 +3388,7 @@
       <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3394,34 +3396,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K451"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A404" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A404" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K418" sqref="K418"/>
+      <selection pane="bottomLeft" activeCell="K420" sqref="K420"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3442,7 +3444,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3462,7 +3464,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3484,7 +3486,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3492,7 +3494,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3505,7 +3507,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3522,7 +3524,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3557,7 +3559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3566,7 +3568,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>141.33900000000006</v>
+        <v>132.58900000000006</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3576,12 +3578,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>426.5</v>
+        <v>427.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3603,7 +3605,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>33970</v>
       </c>
@@ -3623,7 +3625,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>34001</v>
@@ -3644,7 +3646,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f t="shared" ref="A13:A48" si="0">EDATE(A12,1)</f>
         <v>34029</v>
@@ -3665,7 +3667,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f t="shared" si="0"/>
         <v>34060</v>
@@ -3686,7 +3688,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>34090</v>
@@ -3707,7 +3709,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>34121</v>
@@ -3728,7 +3730,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>34151</v>
@@ -3749,7 +3751,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>34182</v>
@@ -3770,7 +3772,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>34213</v>
@@ -3791,7 +3793,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f t="shared" si="0"/>
         <v>34243</v>
@@ -3812,7 +3814,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f t="shared" si="0"/>
         <v>34274</v>
@@ -3833,7 +3835,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <f t="shared" si="0"/>
         <v>34304</v>
@@ -3858,7 +3860,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>44</v>
       </c>
@@ -3876,7 +3878,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f>EDATE(A22,1)</f>
         <v>34335</v>
@@ -3897,7 +3899,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f t="shared" si="0"/>
         <v>34366</v>
@@ -3918,7 +3920,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <f t="shared" si="0"/>
         <v>34394</v>
@@ -3939,7 +3941,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f t="shared" si="0"/>
         <v>34425</v>
@@ -3960,7 +3962,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f t="shared" si="0"/>
         <v>34455</v>
@@ -3981,7 +3983,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f t="shared" si="0"/>
         <v>34486</v>
@@ -4002,7 +4004,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f t="shared" si="0"/>
         <v>34516</v>
@@ -4023,7 +4025,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f t="shared" si="0"/>
         <v>34547</v>
@@ -4044,7 +4046,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <f t="shared" si="0"/>
         <v>34578</v>
@@ -4065,7 +4067,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f t="shared" si="0"/>
         <v>34608</v>
@@ -4086,7 +4088,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f t="shared" si="0"/>
         <v>34639</v>
@@ -4107,7 +4109,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f t="shared" si="0"/>
         <v>34669</v>
@@ -4132,7 +4134,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
         <v>45</v>
       </c>
@@ -4150,7 +4152,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f>EDATE(A35,1)</f>
         <v>34700</v>
@@ -4171,7 +4173,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f t="shared" si="0"/>
         <v>34731</v>
@@ -4192,7 +4194,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f t="shared" si="0"/>
         <v>34759</v>
@@ -4213,7 +4215,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f t="shared" si="0"/>
         <v>34790</v>
@@ -4236,7 +4238,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f t="shared" si="0"/>
         <v>34820</v>
@@ -4257,7 +4259,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f t="shared" si="0"/>
         <v>34851</v>
@@ -4278,7 +4280,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f t="shared" si="0"/>
         <v>34881</v>
@@ -4299,7 +4301,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f t="shared" si="0"/>
         <v>34912</v>
@@ -4320,7 +4322,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f t="shared" si="0"/>
         <v>34943</v>
@@ -4341,7 +4343,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f t="shared" si="0"/>
         <v>34973</v>
@@ -4362,7 +4364,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f t="shared" si="0"/>
         <v>35004</v>
@@ -4383,7 +4385,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f t="shared" si="0"/>
         <v>35034</v>
@@ -4408,7 +4410,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
         <v>46</v>
       </c>
@@ -4426,7 +4428,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>35065</v>
       </c>
@@ -4446,7 +4448,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f>EDATE(A50,1)</f>
         <v>35096</v>
@@ -4467,7 +4469,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f t="shared" ref="A52:A100" si="1">EDATE(A51,1)</f>
         <v>35125</v>
@@ -4488,7 +4490,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f t="shared" si="1"/>
         <v>35156</v>
@@ -4509,7 +4511,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f t="shared" si="1"/>
         <v>35186</v>
@@ -4530,7 +4532,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f t="shared" si="1"/>
         <v>35217</v>
@@ -4551,7 +4553,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f t="shared" si="1"/>
         <v>35247</v>
@@ -4572,7 +4574,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f t="shared" si="1"/>
         <v>35278</v>
@@ -4593,7 +4595,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f t="shared" si="1"/>
         <v>35309</v>
@@ -4614,7 +4616,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f t="shared" si="1"/>
         <v>35339</v>
@@ -4635,7 +4637,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <f t="shared" si="1"/>
         <v>35370</v>
@@ -4658,7 +4660,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f t="shared" si="1"/>
         <v>35400</v>
@@ -4683,7 +4685,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="47" t="s">
         <v>47</v>
       </c>
@@ -4701,7 +4703,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <f>EDATE(A61,1)</f>
         <v>35431</v>
@@ -4722,7 +4724,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f t="shared" si="1"/>
         <v>35462</v>
@@ -4743,7 +4745,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <f t="shared" si="1"/>
         <v>35490</v>
@@ -4764,7 +4766,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f t="shared" si="1"/>
         <v>35521</v>
@@ -4785,7 +4787,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <f t="shared" si="1"/>
         <v>35551</v>
@@ -4806,7 +4808,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f t="shared" si="1"/>
         <v>35582</v>
@@ -4827,7 +4829,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <f t="shared" si="1"/>
         <v>35612</v>
@@ -4848,7 +4850,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f t="shared" si="1"/>
         <v>35643</v>
@@ -4869,7 +4871,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <f t="shared" si="1"/>
         <v>35674</v>
@@ -4890,7 +4892,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <f t="shared" si="1"/>
         <v>35704</v>
@@ -4911,7 +4913,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f t="shared" si="1"/>
         <v>35735</v>
@@ -4932,7 +4934,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <f t="shared" si="1"/>
         <v>35765</v>
@@ -4957,7 +4959,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="47" t="s">
         <v>48</v>
       </c>
@@ -4975,7 +4977,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <f>EDATE(A74,1)</f>
         <v>35796</v>
@@ -4996,7 +4998,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <f t="shared" si="1"/>
         <v>35827</v>
@@ -5017,7 +5019,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f t="shared" si="1"/>
         <v>35855</v>
@@ -5038,7 +5040,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f t="shared" si="1"/>
         <v>35886</v>
@@ -5059,7 +5061,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f t="shared" si="1"/>
         <v>35916</v>
@@ -5080,7 +5082,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f t="shared" si="1"/>
         <v>35947</v>
@@ -5101,7 +5103,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <f t="shared" si="1"/>
         <v>35977</v>
@@ -5122,7 +5124,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f t="shared" si="1"/>
         <v>36008</v>
@@ -5143,7 +5145,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f t="shared" si="1"/>
         <v>36039</v>
@@ -5164,7 +5166,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f t="shared" si="1"/>
         <v>36069</v>
@@ -5185,7 +5187,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f t="shared" si="1"/>
         <v>36100</v>
@@ -5206,7 +5208,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f t="shared" si="1"/>
         <v>36130</v>
@@ -5231,7 +5233,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="47" t="s">
         <v>49</v>
       </c>
@@ -5249,7 +5251,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f>EDATE(A87,1)</f>
         <v>36161</v>
@@ -5270,7 +5272,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f t="shared" si="1"/>
         <v>36192</v>
@@ -5291,7 +5293,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <f t="shared" si="1"/>
         <v>36220</v>
@@ -5312,7 +5314,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f t="shared" si="1"/>
         <v>36251</v>
@@ -5333,7 +5335,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f t="shared" si="1"/>
         <v>36281</v>
@@ -5354,7 +5356,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f t="shared" si="1"/>
         <v>36312</v>
@@ -5375,7 +5377,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f t="shared" si="1"/>
         <v>36342</v>
@@ -5396,7 +5398,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f t="shared" si="1"/>
         <v>36373</v>
@@ -5417,7 +5419,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="1"/>
         <v>36404</v>
@@ -5438,7 +5440,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" si="1"/>
         <v>36434</v>
@@ -5459,7 +5461,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f t="shared" si="1"/>
         <v>36465</v>
@@ -5480,7 +5482,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f t="shared" si="1"/>
         <v>36495</v>
@@ -5505,7 +5507,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="47" t="s">
         <v>50</v>
       </c>
@@ -5523,7 +5525,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>36526</v>
       </c>
@@ -5543,7 +5545,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f>EDATE(A102,1)</f>
         <v>36557</v>
@@ -5564,7 +5566,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f t="shared" ref="A104:A139" si="2">EDATE(A103,1)</f>
         <v>36586</v>
@@ -5585,7 +5587,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f t="shared" si="2"/>
         <v>36617</v>
@@ -5606,7 +5608,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f t="shared" si="2"/>
         <v>36647</v>
@@ -5627,7 +5629,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f t="shared" si="2"/>
         <v>36678</v>
@@ -5648,7 +5650,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <f t="shared" si="2"/>
         <v>36708</v>
@@ -5669,7 +5671,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f t="shared" si="2"/>
         <v>36739</v>
@@ -5690,7 +5692,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f t="shared" si="2"/>
         <v>36770</v>
@@ -5711,7 +5713,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f t="shared" si="2"/>
         <v>36800</v>
@@ -5732,7 +5734,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f t="shared" si="2"/>
         <v>36831</v>
@@ -5753,7 +5755,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f t="shared" si="2"/>
         <v>36861</v>
@@ -5778,7 +5780,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="47" t="s">
         <v>52</v>
       </c>
@@ -5796,7 +5798,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f>EDATE(A113,1)</f>
         <v>36892</v>
@@ -5817,7 +5819,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f t="shared" si="2"/>
         <v>36923</v>
@@ -5838,7 +5840,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f t="shared" si="2"/>
         <v>36951</v>
@@ -5859,7 +5861,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f t="shared" si="2"/>
         <v>36982</v>
@@ -5880,7 +5882,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f t="shared" si="2"/>
         <v>37012</v>
@@ -5901,7 +5903,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" si="2"/>
         <v>37043</v>
@@ -5922,7 +5924,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f t="shared" si="2"/>
         <v>37073</v>
@@ -5943,7 +5945,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f t="shared" si="2"/>
         <v>37104</v>
@@ -5964,7 +5966,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f t="shared" si="2"/>
         <v>37135</v>
@@ -5985,7 +5987,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f t="shared" si="2"/>
         <v>37165</v>
@@ -6006,7 +6008,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <f t="shared" si="2"/>
         <v>37196</v>
@@ -6027,7 +6029,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f t="shared" si="2"/>
         <v>37226</v>
@@ -6052,7 +6054,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="47" t="s">
         <v>51</v>
       </c>
@@ -6070,7 +6072,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <f>EDATE(A126,1)</f>
         <v>37257</v>
@@ -6091,7 +6093,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f t="shared" si="2"/>
         <v>37288</v>
@@ -6112,7 +6114,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <f t="shared" si="2"/>
         <v>37316</v>
@@ -6133,7 +6135,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f t="shared" si="2"/>
         <v>37347</v>
@@ -6154,7 +6156,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f t="shared" si="2"/>
         <v>37377</v>
@@ -6175,7 +6177,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <f t="shared" si="2"/>
         <v>37408</v>
@@ -6196,7 +6198,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f t="shared" si="2"/>
         <v>37438</v>
@@ -6217,7 +6219,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <f t="shared" si="2"/>
         <v>37469</v>
@@ -6238,7 +6240,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <f t="shared" si="2"/>
         <v>37500</v>
@@ -6259,7 +6261,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f t="shared" si="2"/>
         <v>37530</v>
@@ -6280,7 +6282,7 @@
       <c r="J137" s="12"/>
       <c r="K137" s="15"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f t="shared" si="2"/>
         <v>37561</v>
@@ -6301,7 +6303,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f t="shared" si="2"/>
         <v>37591</v>
@@ -6326,7 +6328,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="47" t="s">
         <v>55</v>
       </c>
@@ -6344,7 +6346,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>37622</v>
       </c>
@@ -6364,7 +6366,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f>EDATE(A141,1)</f>
         <v>37653</v>
@@ -6385,7 +6387,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f t="shared" ref="A143:A213" si="3">EDATE(A142,1)</f>
         <v>37681</v>
@@ -6406,7 +6408,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f t="shared" si="3"/>
         <v>37712</v>
@@ -6427,7 +6429,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <f t="shared" si="3"/>
         <v>37742</v>
@@ -6448,7 +6450,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f t="shared" si="3"/>
         <v>37773</v>
@@ -6469,7 +6471,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <f t="shared" si="3"/>
         <v>37803</v>
@@ -6490,7 +6492,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f t="shared" si="3"/>
         <v>37834</v>
@@ -6511,7 +6513,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <f t="shared" si="3"/>
         <v>37865</v>
@@ -6532,7 +6534,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <f t="shared" si="3"/>
         <v>37895</v>
@@ -6559,7 +6561,7 @@
         <v>37900</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>66</v>
@@ -6579,7 +6581,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <f>EDATE(A150,1)</f>
         <v>37926</v>
@@ -6600,7 +6602,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <f t="shared" si="3"/>
         <v>37956</v>
@@ -6625,7 +6627,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="47" t="s">
         <v>56</v>
       </c>
@@ -6645,7 +6647,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <f>EDATE(A153,1)</f>
         <v>37987</v>
@@ -6666,7 +6668,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <f t="shared" si="3"/>
         <v>38018</v>
@@ -6687,7 +6689,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <f t="shared" si="3"/>
         <v>38047</v>
@@ -6714,7 +6716,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <f t="shared" si="3"/>
         <v>38078</v>
@@ -6735,7 +6737,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <f t="shared" si="3"/>
         <v>38108</v>
@@ -6756,7 +6758,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <f t="shared" si="3"/>
         <v>38139</v>
@@ -6777,7 +6779,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f t="shared" si="3"/>
         <v>38169</v>
@@ -6798,7 +6800,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <f t="shared" si="3"/>
         <v>38200</v>
@@ -6819,7 +6821,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <f t="shared" si="3"/>
         <v>38231</v>
@@ -6840,7 +6842,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <f t="shared" si="3"/>
         <v>38261</v>
@@ -6861,7 +6863,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <f t="shared" si="3"/>
         <v>38292</v>
@@ -6882,7 +6884,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <f t="shared" si="3"/>
         <v>38322</v>
@@ -6903,7 +6905,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="47" t="s">
         <v>57</v>
       </c>
@@ -6923,7 +6925,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <f>EDATE(A166,1)</f>
         <v>38353</v>
@@ -6948,7 +6950,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <f t="shared" si="3"/>
         <v>38384</v>
@@ -6973,7 +6975,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <f t="shared" si="3"/>
         <v>38412</v>
@@ -6998,7 +7000,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <f t="shared" si="3"/>
         <v>38443</v>
@@ -7023,7 +7025,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f t="shared" si="3"/>
         <v>38473</v>
@@ -7048,7 +7050,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <f t="shared" si="3"/>
         <v>38504</v>
@@ -7075,7 +7077,7 @@
         <v>38512</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>76</v>
@@ -7095,7 +7097,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>78</v>
@@ -7117,7 +7119,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <f>EDATE(A173,1)</f>
         <v>38534</v>
@@ -7142,7 +7144,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <f t="shared" si="3"/>
         <v>38565</v>
@@ -7167,7 +7169,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f t="shared" si="3"/>
         <v>38596</v>
@@ -7188,7 +7190,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <f t="shared" si="3"/>
         <v>38626</v>
@@ -7209,7 +7211,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f t="shared" si="3"/>
         <v>38657</v>
@@ -7230,7 +7232,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f t="shared" si="3"/>
         <v>38687</v>
@@ -7255,7 +7257,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="47" t="s">
         <v>58</v>
       </c>
@@ -7273,7 +7275,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f>EDATE(A181,1)</f>
         <v>38718</v>
@@ -7298,7 +7300,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <f t="shared" si="3"/>
         <v>38749</v>
@@ -7323,7 +7325,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <f t="shared" si="3"/>
         <v>38777</v>
@@ -7348,7 +7350,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f t="shared" si="3"/>
         <v>38808</v>
@@ -7369,7 +7371,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <f t="shared" si="3"/>
         <v>38838</v>
@@ -7394,7 +7396,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <f t="shared" si="3"/>
         <v>38869</v>
@@ -7419,7 +7421,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <f t="shared" si="3"/>
         <v>38899</v>
@@ -7444,7 +7446,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f t="shared" si="3"/>
         <v>38930</v>
@@ -7469,7 +7471,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <f t="shared" si="3"/>
         <v>38961</v>
@@ -7490,7 +7492,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <f t="shared" si="3"/>
         <v>38991</v>
@@ -7515,7 +7517,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <f t="shared" si="3"/>
         <v>39022</v>
@@ -7540,7 +7542,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <f t="shared" si="3"/>
         <v>39052</v>
@@ -7565,7 +7567,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>53</v>
@@ -7585,7 +7587,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="47" t="s">
         <v>59</v>
       </c>
@@ -7605,7 +7607,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <f>EDATE(A194,1)</f>
         <v>39083</v>
@@ -7630,7 +7632,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <f t="shared" si="3"/>
         <v>39114</v>
@@ -7651,7 +7653,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <f t="shared" si="3"/>
         <v>39142</v>
@@ -7676,7 +7678,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <f t="shared" si="3"/>
         <v>39173</v>
@@ -7701,7 +7703,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <f t="shared" si="3"/>
         <v>39203</v>
@@ -7722,7 +7724,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <f t="shared" si="3"/>
         <v>39234</v>
@@ -7743,7 +7745,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <f t="shared" si="3"/>
         <v>39264</v>
@@ -7764,7 +7766,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <f t="shared" si="3"/>
         <v>39295</v>
@@ -7785,7 +7787,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <f t="shared" si="3"/>
         <v>39326</v>
@@ -7806,7 +7808,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <f t="shared" si="3"/>
         <v>39356</v>
@@ -7831,7 +7833,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <f t="shared" si="3"/>
         <v>39387</v>
@@ -7856,7 +7858,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <f t="shared" si="3"/>
         <v>39417</v>
@@ -7881,7 +7883,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>96</v>
@@ -7901,7 +7903,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="47" t="s">
         <v>60</v>
       </c>
@@ -7921,7 +7923,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <f>EDATE(A208,1)</f>
         <v>39448</v>
@@ -7946,7 +7948,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <f t="shared" si="3"/>
         <v>39479</v>
@@ -7971,7 +7973,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f t="shared" si="3"/>
         <v>39508</v>
@@ -7996,7 +7998,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>88</v>
@@ -8016,7 +8018,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f>EDATE(A213,1)</f>
         <v>39539</v>
@@ -8041,7 +8043,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>100</v>
@@ -8061,7 +8063,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <f>EDATE(A215,1)</f>
         <v>39569</v>
@@ -8086,7 +8088,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <f>EDATE(A217,1)</f>
         <v>39600</v>
@@ -8111,7 +8113,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <f t="shared" ref="A219:A278" si="4">EDATE(A218,1)</f>
         <v>39630</v>
@@ -8136,7 +8138,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f t="shared" si="4"/>
         <v>39661</v>
@@ -8161,7 +8163,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <f t="shared" si="4"/>
         <v>39692</v>
@@ -8186,7 +8188,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <f t="shared" si="4"/>
         <v>39722</v>
@@ -8207,7 +8209,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <f t="shared" si="4"/>
         <v>39753</v>
@@ -8228,7 +8230,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <f t="shared" si="4"/>
         <v>39783</v>
@@ -8249,7 +8251,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="47" t="s">
         <v>61</v>
       </c>
@@ -8269,7 +8271,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <f>EDATE(A224,1)</f>
         <v>39814</v>
@@ -8294,7 +8296,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <f t="shared" si="4"/>
         <v>39845</v>
@@ -8319,7 +8321,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f t="shared" si="4"/>
         <v>39873</v>
@@ -8340,7 +8342,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <f t="shared" si="4"/>
         <v>39904</v>
@@ -8365,7 +8367,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <f t="shared" si="4"/>
         <v>39934</v>
@@ -8390,7 +8392,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>112</v>
@@ -8410,7 +8412,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <f>EDATE(A230,1)</f>
         <v>39965</v>
@@ -8435,7 +8437,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <f t="shared" si="4"/>
         <v>39995</v>
@@ -8460,7 +8462,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <f t="shared" si="4"/>
         <v>40026</v>
@@ -8485,7 +8487,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <f t="shared" si="4"/>
         <v>40057</v>
@@ -8510,7 +8512,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f t="shared" si="4"/>
         <v>40087</v>
@@ -8535,7 +8537,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <f t="shared" si="4"/>
         <v>40118</v>
@@ -8560,7 +8562,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <f t="shared" si="4"/>
         <v>40148</v>
@@ -8585,7 +8587,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="47" t="s">
         <v>62</v>
       </c>
@@ -8603,7 +8605,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f>EDATE(A238,1)</f>
         <v>40179</v>
@@ -8628,7 +8630,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <f t="shared" si="4"/>
         <v>40210</v>
@@ -8653,7 +8655,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f t="shared" si="4"/>
         <v>40238</v>
@@ -8674,7 +8676,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <f t="shared" si="4"/>
         <v>40269</v>
@@ -8699,7 +8701,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <f t="shared" si="4"/>
         <v>40299</v>
@@ -8724,7 +8726,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f t="shared" si="4"/>
         <v>40330</v>
@@ -8749,7 +8751,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <f t="shared" si="4"/>
         <v>40360</v>
@@ -8774,7 +8776,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <f t="shared" si="4"/>
         <v>40391</v>
@@ -8799,7 +8801,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <f t="shared" si="4"/>
         <v>40422</v>
@@ -8824,7 +8826,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <f t="shared" si="4"/>
         <v>40452</v>
@@ -8845,7 +8847,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <f t="shared" si="4"/>
         <v>40483</v>
@@ -8870,7 +8872,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <f t="shared" si="4"/>
         <v>40513</v>
@@ -8895,7 +8897,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>53</v>
@@ -8915,7 +8917,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="47" t="s">
         <v>63</v>
       </c>
@@ -8935,7 +8937,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <f>EDATE(A251,1)</f>
         <v>40544</v>
@@ -8960,7 +8962,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <f t="shared" si="4"/>
         <v>40575</v>
@@ -8985,7 +8987,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f t="shared" si="4"/>
         <v>40603</v>
@@ -9010,7 +9012,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <f t="shared" si="4"/>
         <v>40634</v>
@@ -9035,7 +9037,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <f t="shared" si="4"/>
         <v>40664</v>
@@ -9060,7 +9062,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <f t="shared" si="4"/>
         <v>40695</v>
@@ -9081,7 +9083,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f t="shared" si="4"/>
         <v>40725</v>
@@ -9102,7 +9104,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f t="shared" si="4"/>
         <v>40756</v>
@@ -9123,7 +9125,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <f t="shared" si="4"/>
         <v>40787</v>
@@ -9144,7 +9146,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <f t="shared" si="4"/>
         <v>40817</v>
@@ -9169,7 +9171,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f t="shared" si="4"/>
         <v>40848</v>
@@ -9194,7 +9196,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <f t="shared" si="4"/>
         <v>40878</v>
@@ -9219,7 +9221,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="47" t="s">
         <v>134</v>
       </c>
@@ -9237,7 +9239,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <f>EDATE(A265,1)</f>
         <v>40909</v>
@@ -9258,7 +9260,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <f t="shared" si="4"/>
         <v>40940</v>
@@ -9279,7 +9281,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <f t="shared" si="4"/>
         <v>40969</v>
@@ -9300,7 +9302,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <f t="shared" si="4"/>
         <v>41000</v>
@@ -9321,7 +9323,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <f t="shared" si="4"/>
         <v>41030</v>
@@ -9342,7 +9344,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f t="shared" si="4"/>
         <v>41061</v>
@@ -9363,7 +9365,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <f t="shared" si="4"/>
         <v>41091</v>
@@ -9384,7 +9386,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <f t="shared" si="4"/>
         <v>41122</v>
@@ -9405,7 +9407,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <f t="shared" si="4"/>
         <v>41153</v>
@@ -9426,7 +9428,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <f t="shared" si="4"/>
         <v>41183</v>
@@ -9447,7 +9449,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <f t="shared" si="4"/>
         <v>41214</v>
@@ -9468,7 +9470,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <f t="shared" si="4"/>
         <v>41244</v>
@@ -9493,7 +9495,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="47" t="s">
         <v>64</v>
       </c>
@@ -9513,7 +9515,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>41275</v>
       </c>
@@ -9533,7 +9535,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <f>EDATE(A280,1)</f>
         <v>41306</v>
@@ -9554,7 +9556,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f t="shared" ref="A282:A334" si="5">EDATE(A281,1)</f>
         <v>41334</v>
@@ -9579,7 +9581,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <f t="shared" si="5"/>
         <v>41365</v>
@@ -9600,7 +9602,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <f t="shared" si="5"/>
         <v>41395</v>
@@ -9621,7 +9623,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <f t="shared" si="5"/>
         <v>41426</v>
@@ -9646,7 +9648,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <f t="shared" si="5"/>
         <v>41456</v>
@@ -9671,7 +9673,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <f t="shared" si="5"/>
         <v>41487</v>
@@ -9696,7 +9698,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <f t="shared" si="5"/>
         <v>41518</v>
@@ -9717,7 +9719,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f t="shared" si="5"/>
         <v>41548</v>
@@ -9738,7 +9740,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <f t="shared" si="5"/>
         <v>41579</v>
@@ -9759,7 +9761,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <f t="shared" si="5"/>
         <v>41609</v>
@@ -9784,7 +9786,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="47" t="s">
         <v>138</v>
       </c>
@@ -9802,7 +9804,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <f>EDATE(A291,1)</f>
         <v>41640</v>
@@ -9827,7 +9829,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <f t="shared" si="5"/>
         <v>41671</v>
@@ -9848,7 +9850,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <f t="shared" si="5"/>
         <v>41699</v>
@@ -9869,7 +9871,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <f t="shared" si="5"/>
         <v>41730</v>
@@ -9894,7 +9896,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <f t="shared" si="5"/>
         <v>41760</v>
@@ -9915,7 +9917,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <f t="shared" si="5"/>
         <v>41791</v>
@@ -9942,7 +9944,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>150</v>
@@ -9964,7 +9966,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <f>EDATE(A298,1)</f>
         <v>41821</v>
@@ -9989,7 +9991,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <f t="shared" si="5"/>
         <v>41852</v>
@@ -10014,7 +10016,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <f t="shared" si="5"/>
         <v>41883</v>
@@ -10035,7 +10037,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <f t="shared" si="5"/>
         <v>41913</v>
@@ -10060,7 +10062,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <f t="shared" si="5"/>
         <v>41944</v>
@@ -10081,7 +10083,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <f t="shared" si="5"/>
         <v>41974</v>
@@ -10106,7 +10108,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>154</v>
@@ -10128,7 +10130,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>155</v>
@@ -10148,7 +10150,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="47" t="s">
         <v>135</v>
       </c>
@@ -10166,7 +10168,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <f>EDATE(A305,1)</f>
         <v>42005</v>
@@ -10191,7 +10193,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <f t="shared" si="5"/>
         <v>42036</v>
@@ -10216,7 +10218,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <f t="shared" si="5"/>
         <v>42064</v>
@@ -10241,7 +10243,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <f t="shared" si="5"/>
         <v>42095</v>
@@ -10266,7 +10268,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <f t="shared" si="5"/>
         <v>42125</v>
@@ -10291,7 +10293,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <f t="shared" si="5"/>
         <v>42156</v>
@@ -10316,7 +10318,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <f t="shared" si="5"/>
         <v>42186</v>
@@ -10341,7 +10343,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <f t="shared" si="5"/>
         <v>42217</v>
@@ -10366,7 +10368,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <f t="shared" si="5"/>
         <v>42248</v>
@@ -10391,7 +10393,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <f t="shared" si="5"/>
         <v>42278</v>
@@ -10416,7 +10418,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <f t="shared" si="5"/>
         <v>42309</v>
@@ -10437,7 +10439,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <f t="shared" si="5"/>
         <v>42339</v>
@@ -10462,7 +10464,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>53</v>
@@ -10482,7 +10484,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="47" t="s">
         <v>136</v>
       </c>
@@ -10500,7 +10502,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <f>EDATE(A320,1)</f>
         <v>42370</v>
@@ -10521,7 +10523,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <f t="shared" si="5"/>
         <v>42401</v>
@@ -10542,7 +10544,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <f t="shared" si="5"/>
         <v>42430</v>
@@ -10563,7 +10565,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <f t="shared" si="5"/>
         <v>42461</v>
@@ -10584,7 +10586,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <f t="shared" si="5"/>
         <v>42491</v>
@@ -10605,7 +10607,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <f t="shared" si="5"/>
         <v>42522</v>
@@ -10626,7 +10628,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <f t="shared" si="5"/>
         <v>42552</v>
@@ -10647,7 +10649,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <f t="shared" si="5"/>
         <v>42583</v>
@@ -10668,7 +10670,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <f t="shared" si="5"/>
         <v>42614</v>
@@ -10689,7 +10691,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <f t="shared" si="5"/>
         <v>42644</v>
@@ -10716,7 +10718,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <f t="shared" si="5"/>
         <v>42675</v>
@@ -10737,7 +10739,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <f t="shared" si="5"/>
         <v>42705</v>
@@ -10762,7 +10764,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="47" t="s">
         <v>137</v>
       </c>
@@ -10780,7 +10782,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>42736</v>
       </c>
@@ -10800,7 +10802,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <f>EDATE(A336,1)</f>
         <v>42767</v>
@@ -10821,7 +10823,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <f t="shared" ref="A338:A407" si="6">EDATE(A337,1)</f>
         <v>42795</v>
@@ -10842,7 +10844,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <f t="shared" si="6"/>
         <v>42826</v>
@@ -10863,7 +10865,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <f t="shared" si="6"/>
         <v>42856</v>
@@ -10884,7 +10886,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <f t="shared" si="6"/>
         <v>42887</v>
@@ -10905,7 +10907,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <f t="shared" si="6"/>
         <v>42917</v>
@@ -10932,7 +10934,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <f t="shared" si="6"/>
         <v>42948</v>
@@ -10953,7 +10955,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <f t="shared" si="6"/>
         <v>42979</v>
@@ -10980,7 +10982,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <f t="shared" si="6"/>
         <v>43009</v>
@@ -11001,7 +11003,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <f t="shared" si="6"/>
         <v>43040</v>
@@ -11022,7 +11024,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <f t="shared" si="6"/>
         <v>43070</v>
@@ -11047,7 +11049,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="47" t="s">
         <v>139</v>
       </c>
@@ -11065,7 +11067,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <f>EDATE(A347,1)</f>
         <v>43101</v>
@@ -11086,7 +11088,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <f t="shared" si="6"/>
         <v>43132</v>
@@ -11107,7 +11109,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <f t="shared" si="6"/>
         <v>43160</v>
@@ -11128,7 +11130,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <f t="shared" si="6"/>
         <v>43191</v>
@@ -11149,7 +11151,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <f t="shared" si="6"/>
         <v>43221</v>
@@ -11170,7 +11172,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <f t="shared" si="6"/>
         <v>43252</v>
@@ -11191,7 +11193,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <f t="shared" si="6"/>
         <v>43282</v>
@@ -11212,7 +11214,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <f t="shared" si="6"/>
         <v>43313</v>
@@ -11233,7 +11235,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <f t="shared" si="6"/>
         <v>43344</v>
@@ -11254,7 +11256,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <f t="shared" si="6"/>
         <v>43374</v>
@@ -11281,7 +11283,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>172</v>
@@ -11303,7 +11305,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <f>EDATE(A358,1)</f>
         <v>43405</v>
@@ -11324,7 +11326,7 @@
       <c r="J360" s="12"/>
       <c r="K360" s="15"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <f t="shared" si="6"/>
         <v>43435</v>
@@ -11345,7 +11347,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="47" t="s">
         <v>140</v>
       </c>
@@ -11363,7 +11365,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <f>EDATE(A361,1)</f>
         <v>43466</v>
@@ -11390,7 +11392,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <f t="shared" si="6"/>
         <v>43497</v>
@@ -11411,7 +11413,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <f t="shared" si="6"/>
         <v>43525</v>
@@ -11432,7 +11434,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <f t="shared" si="6"/>
         <v>43556</v>
@@ -11453,7 +11455,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <f t="shared" si="6"/>
         <v>43586</v>
@@ -11474,7 +11476,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <f t="shared" si="6"/>
         <v>43617</v>
@@ -11495,7 +11497,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <f t="shared" si="6"/>
         <v>43647</v>
@@ -11516,7 +11518,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <f t="shared" si="6"/>
         <v>43678</v>
@@ -11537,7 +11539,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <f t="shared" si="6"/>
         <v>43709</v>
@@ -11558,7 +11560,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <f t="shared" si="6"/>
         <v>43739</v>
@@ -11585,7 +11587,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <f t="shared" si="6"/>
         <v>43770</v>
@@ -11606,7 +11608,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <f t="shared" si="6"/>
         <v>43800</v>
@@ -11627,7 +11629,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="47" t="s">
         <v>141</v>
       </c>
@@ -11642,7 +11644,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <f>EDATE(A374,1)</f>
         <v>43831</v>
@@ -11663,7 +11665,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <f t="shared" si="6"/>
         <v>43862</v>
@@ -11684,7 +11686,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <f t="shared" si="6"/>
         <v>43891</v>
@@ -11705,7 +11707,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <f t="shared" si="6"/>
         <v>43922</v>
@@ -11726,7 +11728,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <f t="shared" si="6"/>
         <v>43952</v>
@@ -11747,7 +11749,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <f t="shared" si="6"/>
         <v>43983</v>
@@ -11768,7 +11770,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <f t="shared" si="6"/>
         <v>44013</v>
@@ -11789,7 +11791,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <f t="shared" si="6"/>
         <v>44044</v>
@@ -11810,7 +11812,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <f t="shared" si="6"/>
         <v>44075</v>
@@ -11835,7 +11837,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <f t="shared" si="6"/>
         <v>44105</v>
@@ -11856,7 +11858,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <f t="shared" si="6"/>
         <v>44136</v>
@@ -11877,7 +11879,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <f t="shared" si="6"/>
         <v>44166</v>
@@ -11902,7 +11904,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="47" t="s">
         <v>142</v>
       </c>
@@ -11920,7 +11922,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <f>EDATE(A387,1)</f>
         <v>44197</v>
@@ -11941,7 +11943,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <f t="shared" si="6"/>
         <v>44228</v>
@@ -11966,7 +11968,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <f t="shared" si="6"/>
         <v>44256</v>
@@ -11987,7 +11989,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <f t="shared" si="6"/>
         <v>44287</v>
@@ -12008,7 +12010,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <f t="shared" si="6"/>
         <v>44317</v>
@@ -12033,7 +12035,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <f t="shared" si="6"/>
         <v>44348</v>
@@ -12054,7 +12056,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <f t="shared" si="6"/>
         <v>44378</v>
@@ -12075,7 +12077,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <f t="shared" si="6"/>
         <v>44409</v>
@@ -12096,7 +12098,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <f t="shared" si="6"/>
         <v>44440</v>
@@ -12117,7 +12119,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <f t="shared" si="6"/>
         <v>44470</v>
@@ -12144,7 +12146,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <f t="shared" si="6"/>
         <v>44501</v>
@@ -12165,7 +12167,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <f t="shared" si="6"/>
         <v>44531</v>
@@ -12186,7 +12188,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="47" t="s">
         <v>143</v>
       </c>
@@ -12204,7 +12206,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <f>EDATE(A400,1)</f>
         <v>44562</v>
@@ -12225,7 +12227,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <f t="shared" si="6"/>
         <v>44593</v>
@@ -12246,7 +12248,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <f t="shared" si="6"/>
         <v>44621</v>
@@ -12267,7 +12269,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <f t="shared" si="6"/>
         <v>44652</v>
@@ -12288,7 +12290,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <f t="shared" si="6"/>
         <v>44682</v>
@@ -12315,7 +12317,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <f t="shared" si="6"/>
         <v>44713</v>
@@ -12336,7 +12338,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <f t="shared" ref="A408:A411" si="7">EDATE(A407,1)</f>
         <v>44743</v>
@@ -12357,7 +12359,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <f t="shared" si="7"/>
         <v>44774</v>
@@ -12378,7 +12380,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <f t="shared" si="7"/>
         <v>44805</v>
@@ -12399,7 +12401,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <f t="shared" si="7"/>
         <v>44835</v>
@@ -12426,7 +12428,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>44866</v>
       </c>
@@ -12452,7 +12454,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>44896</v>
       </c>
@@ -12478,7 +12480,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="47" t="s">
         <v>190</v>
       </c>
@@ -12496,7 +12498,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>44927</v>
       </c>
@@ -12516,7 +12518,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>44958</v>
       </c>
@@ -12536,7 +12538,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>44986</v>
       </c>
@@ -12562,31 +12564,37 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>45017</v>
       </c>
       <c r="B418" s="20"/>
-      <c r="C418" s="13"/>
+      <c r="C418" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D418" s="39"/>
       <c r="E418" s="9"/>
       <c r="F418" s="20"/>
-      <c r="G418" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G418" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H418" s="39"/>
       <c r="I418" s="9"/>
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>45047</v>
       </c>
-      <c r="B419" s="20"/>
+      <c r="B419" s="20" t="s">
+        <v>172</v>
+      </c>
       <c r="C419" s="13"/>
-      <c r="D419" s="39"/>
+      <c r="D419" s="39">
+        <v>10</v>
+      </c>
       <c r="E419" s="9"/>
       <c r="F419" s="20"/>
       <c r="G419" s="13" t="str">
@@ -12596,9 +12604,11 @@
       <c r="H419" s="39"/>
       <c r="I419" s="9"/>
       <c r="J419" s="11"/>
-      <c r="K419" s="20"/>
-    </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K419" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>45078</v>
       </c>
@@ -12616,7 +12626,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>45108</v>
       </c>
@@ -12634,7 +12644,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>45139</v>
       </c>
@@ -12652,7 +12662,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>45170</v>
       </c>
@@ -12670,7 +12680,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>45200</v>
       </c>
@@ -12688,7 +12698,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>45231</v>
       </c>
@@ -12706,7 +12716,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>45261</v>
       </c>
@@ -12724,7 +12734,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>45292</v>
       </c>
@@ -12742,7 +12752,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>45323</v>
       </c>
@@ -12760,7 +12770,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>45352</v>
       </c>
@@ -12778,7 +12788,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>45383</v>
       </c>
@@ -12796,7 +12806,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>45413</v>
       </c>
@@ -12814,7 +12824,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>45444</v>
       </c>
@@ -12832,7 +12842,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>45474</v>
       </c>
@@ -12850,7 +12860,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>45505</v>
       </c>
@@ -12868,7 +12878,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>45536</v>
       </c>
@@ -12886,7 +12896,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>45566</v>
       </c>
@@ -12904,7 +12914,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>45597</v>
       </c>
@@ -12922,7 +12932,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>45627</v>
       </c>
@@ -12940,7 +12950,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>45658</v>
       </c>
@@ -12958,7 +12968,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>45689</v>
       </c>
@@ -12976,7 +12986,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>45717</v>
       </c>
@@ -12994,7 +13004,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>45748</v>
       </c>
@@ -13012,7 +13022,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>45778</v>
       </c>
@@ -13030,7 +13040,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>45809</v>
       </c>
@@ -13048,7 +13058,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>45839</v>
       </c>
@@ -13066,7 +13076,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>45870</v>
       </c>
@@ -13084,7 +13094,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>45901</v>
       </c>
@@ -13102,7 +13112,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>45931</v>
       </c>
@@ -13120,7 +13130,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>45962</v>
       </c>
@@ -13138,7 +13148,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>45992</v>
       </c>
@@ -13156,7 +13166,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>46023</v>
       </c>
@@ -13189,10 +13199,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13215,7 +13225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -13223,21 +13233,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -13250,7 +13260,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -13279,7 +13289,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -13305,17 +13315,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -13336,7 +13346,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -13363,7 +13373,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -13389,7 +13399,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -13415,7 +13425,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -13441,7 +13451,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -13467,7 +13477,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -13493,7 +13503,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -13519,7 +13529,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -13545,7 +13555,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -13565,7 +13575,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -13585,7 +13595,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -13605,7 +13615,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -13626,7 +13636,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -13647,7 +13657,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -13668,7 +13678,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -13689,7 +13699,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -13710,7 +13720,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -13731,7 +13741,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -13752,7 +13762,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -13773,7 +13783,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -13794,7 +13804,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13815,7 +13825,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -13836,7 +13846,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -13857,7 +13867,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -13878,7 +13888,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -13899,7 +13909,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -13920,7 +13930,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -13941,7 +13951,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -13962,7 +13972,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -13983,7 +13993,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -14004,7 +14014,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -14025,7 +14035,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -14034,7 +14044,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -14043,7 +14053,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -14052,7 +14062,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -14061,7 +14071,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -14070,7 +14080,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -14079,7 +14089,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -14088,7 +14098,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -14097,7 +14107,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -14106,7 +14116,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -14115,7 +14125,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -14124,7 +14134,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -14133,7 +14143,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -14142,7 +14152,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -14151,7 +14161,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -14160,7 +14170,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -14169,7 +14179,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -14178,7 +14188,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -14187,7 +14197,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -14196,7 +14206,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -14205,7 +14215,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -14214,7 +14224,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -14223,7 +14233,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -14232,7 +14242,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -14241,7 +14251,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -14250,7 +14260,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -14259,7 +14269,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -14268,7 +14278,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -14277,7 +14287,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -14286,7 +14296,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
